--- a/Boom/Excel/BeginnerTutorial.xlsx
+++ b/Boom/Excel/BeginnerTutorial.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5076C8BD-3732-4AED-B747-D38CFEA77BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01D7D03-8C72-47E8-9483-8351809EC071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beginner01" sheetId="1" r:id="rId1"/>
     <sheet name="Beginner02" sheetId="2" r:id="rId2"/>
+    <sheet name="Beginner03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +82,14 @@
   </si>
   <si>
     <t>请带我出去吧，先生，出口就在顶层！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊，带我出去，饿死我了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想出去吃土，最好是种过紫蔷薇和竹夹桃的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +613,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -728,4 +737,115 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF556C-16FE-4B4D-A956-9666D6E07368}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Boom/Excel/BeginnerTutorial.xlsx
+++ b/Boom/Excel/BeginnerTutorial.xlsx
@@ -8,26 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01D7D03-8C72-47E8-9483-8351809EC071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB70F84-95A2-456D-8FC0-0F7B898D7539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beginner01" sheetId="1" r:id="rId1"/>
     <sheet name="Beginner02" sheetId="2" r:id="rId2"/>
-    <sheet name="Beginner03" sheetId="3" r:id="rId3"/>
+    <sheet name="Beginner03" sheetId="4" r:id="rId3"/>
+    <sheet name="Beginner04" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +102,14 @@
   </si>
   <si>
     <t>我想出去吃土，最好是种过紫蔷薇和竹夹桃的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要装备新得到的子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁边有个奇迹子弹。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -536,7 +556,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -740,10 +760,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE698FF-5D9A-4B19-9E68-D2E8B33A9537}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF556C-16FE-4B4D-A956-9666D6E07368}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Boom/Excel/BeginnerTutorial.xlsx
+++ b/Boom/Excel/BeginnerTutorial.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB70F84-95A2-456D-8FC0-0F7B898D7539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4565597B-FFFE-4901-8942-6BF29EAA892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beginner01" sheetId="1" r:id="rId1"/>
     <sheet name="Beginner02" sheetId="2" r:id="rId2"/>
     <sheet name="Beginner03" sheetId="4" r:id="rId3"/>
-    <sheet name="Beginner04" sheetId="3" r:id="rId4"/>
+    <sheet name="InlayGem" sheetId="5" r:id="rId4"/>
+    <sheet name="Beginner04" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +111,10 @@
   </si>
   <si>
     <t>旁边有个奇迹子弹。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我可以镶嵌新得到的宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -764,7 +769,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -839,6 +844,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A4AE2-5F14-4BA5-B53D-1044E43D7FA2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF556C-16FE-4B4D-A956-9666D6E07368}">
   <dimension ref="A1:F7"/>
   <sheetViews>

--- a/Boom/Excel/BeginnerTutorial.xlsx
+++ b/Boom/Excel/BeginnerTutorial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4565597B-FFFE-4901-8942-6BF29EAA892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1902E4-9B46-4C92-8766-2A499CC9D501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beginner01" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -847,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A4AE2-5F14-4BA5-B53D-1044E43D7FA2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/Boom/Excel/BeginnerTutorial.xlsx
+++ b/Boom/Excel/BeginnerTutorial.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1902E4-9B46-4C92-8766-2A499CC9D501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D3A574-63C6-46AE-8F24-31B68303FC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Beginner01" sheetId="1" r:id="rId1"/>
+    <sheet name="魔法基础大聪明" sheetId="1" r:id="rId1"/>
     <sheet name="Beginner02" sheetId="2" r:id="rId2"/>
     <sheet name="Beginner03" sheetId="4" r:id="rId3"/>
     <sheet name="InlayGem" sheetId="5" r:id="rId4"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好饿，好想回家吃饭，只要上到顶层就能出去了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加油上到顶层吧。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,11 +106,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旁边有个奇迹子弹。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我可以镶嵌新得到的宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好饿……教授这个没人性的老头子，把我关进塔里，非要我一路爬到顶层才能回家吃饭！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁边有个奇迹子弹。。。先捡起来吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,13 +494,13 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="52.9140625" customWidth="1"/>
     <col min="7" max="15" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -674,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -723,7 +723,7 @@
         <v>-1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +893,7 @@
         <v>-1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">

--- a/Boom/Excel/BeginnerTutorial.xlsx
+++ b/Boom/Excel/BeginnerTutorial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D3A574-63C6-46AE-8F24-31B68303FC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C211BE1-CDC6-4583-A921-F8C981AE7146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="魔法基础大聪明" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Beginner03" sheetId="4" r:id="rId3"/>
     <sheet name="InlayGem" sheetId="5" r:id="rId4"/>
     <sheet name="Beginner04" sheetId="3" r:id="rId5"/>
+    <sheet name="黏土日常1" sheetId="6" r:id="rId6"/>
+    <sheet name="黏土日常2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,11 +112,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好饿……教授这个没人性的老头子，把我关进塔里，非要我一路爬到顶层才能回家吃饭！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旁边有个奇迹子弹。。。先捡起来吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好饿……教授这个没人性的，把我关进塔里，非要我一路爬到顶层才能回家吃饭！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想种一整片黏土田园，种点小萝卜、苔藓，还有紫蔷薇~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是这里没有阳光也没有泥巴，只有石砖和怪物……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快带我去塔顶吧，我要在那里开一片黏土花园！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我刚刚梦见自己变成了热乎乎的土豆泥，好香……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师先生，你的魔杖能变出点吃的吗？黏土也行，真的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不行啦，再不出去，我要开始啃墙角了……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -541,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -561,7 +587,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -638,7 +664,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -907,7 +933,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1011,4 +1037,204 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06648381-689F-41C3-A86D-F6C9933A630A}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="59.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="35" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBD9E7A-1A8B-46E6-B535-A4A413F805E4}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="18.4140625" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Boom/Excel/BeginnerTutorial.xlsx
+++ b/Boom/Excel/BeginnerTutorial.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C211BE1-CDC6-4583-A921-F8C981AE7146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B1BC4-5F6E-488F-A2CE-19956077E782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="魔法基础大聪明" sheetId="1" r:id="rId1"/>
     <sheet name="Beginner02" sheetId="2" r:id="rId2"/>
-    <sheet name="Beginner03" sheetId="4" r:id="rId3"/>
-    <sheet name="InlayGem" sheetId="5" r:id="rId4"/>
-    <sheet name="Beginner04" sheetId="3" r:id="rId5"/>
-    <sheet name="黏土日常1" sheetId="6" r:id="rId6"/>
-    <sheet name="黏土日常2" sheetId="7" r:id="rId7"/>
+    <sheet name="Beginner04" sheetId="3" r:id="rId3"/>
+    <sheet name="黏土日常1" sheetId="6" r:id="rId4"/>
+    <sheet name="黏土日常2" sheetId="7" r:id="rId5"/>
+    <sheet name="邓肯教学共振1" sheetId="8" r:id="rId6"/>
+    <sheet name="邓肯教学共振2" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加油上到顶层吧。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黏土子弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请带我出去吧，先生，出口就在顶层！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>啊啊啊，带我出去，饿死我了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,18 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我需要装备新得到的子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我可以镶嵌新得到的宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旁边有个奇迹子弹。。。先捡起来吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>好饿……教授这个没人性的，把我关进塔里，非要我一路爬到顶层才能回家吃饭！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,6 +121,44 @@
   </si>
   <si>
     <t>不行啦，再不出去，我要开始啃墙角了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓肯教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[共振伤害规则]  
+第一发正常
+第二发 +1 伤害
+第三发 +2 伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[共振条件]  
+当连续的子弹#种类一致#，且都镶嵌了#【共振宝石】#，就会激发共振！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[共振伤害规则]  
+以此类推。。。#越往后伤害越高#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[共振伤害规则]  
+当然，如果你的共振#加成#更高，伤害#递增#也会更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看好了，共振魔法我只演示一次。现在#打开背包#。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁边有个奇迹子弹。。。先#捡起来#吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请带我出去吧，先生，出口就在#顶层#！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +538,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -567,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -587,7 +605,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -664,12 +682,13 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="33.33203125" customWidth="1"/>
+    <col min="1" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="76.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
@@ -700,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -720,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -729,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -740,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -749,7 +768,7 @@
         <v>-1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -791,144 +810,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE698FF-5D9A-4B19-9E68-D2E8B33A9537}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="35.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1A4AE2-5F14-4BA5-B53D-1044E43D7FA2}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="6" width="28.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF556C-16FE-4B4D-A956-9666D6E07368}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -969,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -978,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -989,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -998,7 +879,7 @@
         <v>-1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1039,7 +920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06648381-689F-41C3-A86D-F6C9933A630A}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1081,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -1090,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1110,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -1130,7 +1011,7 @@
         <v>-1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1139,12 +1020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBD9E7A-1A8B-46E6-B535-A4A413F805E4}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1062,167 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79340585-F205-4D1D-A4AE-8DBF15380D87}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="60.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3D9293-418A-4531-BEEA-54408152CC05}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.9140625" customWidth="1"/>
+    <col min="6" max="6" width="80.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -1193,7 +1234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -1210,26 +1251,46 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
+    <row r="5" spans="1:6" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
         <v>-1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Boom/Excel/BeginnerTutorial.xlsx
+++ b/Boom/Excel/BeginnerTutorial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPro\MLGame\Boom\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1B1BC4-5F6E-488F-A2CE-19956077E782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41921A15-ABE8-4EEF-BECD-869068B57176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="魔法基础大聪明" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Beginner04" sheetId="3" r:id="rId3"/>
     <sheet name="黏土日常1" sheetId="6" r:id="rId4"/>
     <sheet name="黏土日常2" sheetId="7" r:id="rId5"/>
-    <sheet name="邓肯教学共振1" sheetId="8" r:id="rId6"/>
-    <sheet name="邓肯教学共振2" sheetId="9" r:id="rId7"/>
+    <sheet name="邓肯教学双击宝石1" sheetId="10" r:id="rId6"/>
+    <sheet name="邓肯教学双击宝石2" sheetId="11" r:id="rId7"/>
+    <sheet name="邓肯教学共振1" sheetId="8" r:id="rId8"/>
+    <sheet name="邓肯教学共振2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
   <si>
     <t>标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +161,14 @@
   </si>
   <si>
     <t>请带我出去吧，先生，出口就在#顶层#！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌宝石有一个便捷操作。现在#打开背包#。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在#双击#宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,11 +1131,132 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD570F3-7AAC-4F36-9E8B-518EEC3E6F0D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="43.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA376DF-46F7-481D-A492-D1B894C58F9C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.9140625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="59.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79340585-F205-4D1D-A4AE-8DBF15380D87}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3D9293-418A-4531-BEEA-54408152CC05}">
   <dimension ref="A1:F5"/>
   <sheetViews>
